--- a/data/testcase.xlsx
+++ b/data/testcase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="134">
   <si>
     <t xml:space="preserve">用例ID </t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>删除分类成功</t>
+  </si>
+  <si>
+    <t>删除成功1</t>
   </si>
 </sst>
 </file>
@@ -1630,10 +1633,10 @@
   <sheetPr/>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.66666666666667" defaultRowHeight="14.4"/>
@@ -2659,7 +2662,7 @@
         <v>44</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="R28" s="2" t="b">
         <v>1</v>
